--- a/output/Salida_Listado_existencias_20250925.xlsx
+++ b/output/Salida_Listado_existencias_20250925.xlsx
@@ -515,7 +515,7 @@
         <v>-3</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         <v>-3</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
         <v>-5</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -895,7 +895,7 @@
         <v>-9</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>-8</v>
       </c>
       <c r="I15" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         <v>-29</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         <v>-7</v>
       </c>
       <c r="I17" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>-8</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         <v>-3</v>
       </c>
       <c r="I19" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>-6</v>
       </c>
       <c r="I24" t="n">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>-6</v>
       </c>
       <c r="I25" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         <v>-1</v>
       </c>
       <c r="I29" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>-1</v>
       </c>
       <c r="I30" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>-16</v>
       </c>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         <v>-37</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2035,7 +2035,7 @@
         <v>-6</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>-18</v>
       </c>
       <c r="I43" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2111,7 +2111,7 @@
         <v>-3</v>
       </c>
       <c r="I44" t="n">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>-8</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>-9</v>
       </c>
       <c r="I47" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
         <v>-1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>-18</v>
       </c>
       <c r="I51" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2415,7 +2415,7 @@
         <v>-10</v>
       </c>
       <c r="I52" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
         <v>-18</v>
       </c>
       <c r="I53" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>-3</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
         <v>-3</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>-12</v>
       </c>
       <c r="I57" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>-1</v>
       </c>
       <c r="I58" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>-2</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>-9</v>
       </c>
       <c r="I60" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -2795,7 +2795,7 @@
         <v>-8</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>-16</v>
       </c>
       <c r="I65" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
         <v>-100</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
         <v>7</v>
       </c>
       <c r="I72" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="I73" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         <v>29</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>11</v>
       </c>
       <c r="I76" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         <v>9</v>
       </c>
       <c r="I79" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -3479,7 +3479,7 @@
         <v>-3</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>5</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -3555,7 +3555,7 @@
         <v>9</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>-4</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
         <v>8</v>
       </c>
       <c r="I84" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>10</v>
       </c>
       <c r="I85" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>-4</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
         <v>20</v>
       </c>
       <c r="I90" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>24</v>
       </c>
       <c r="I91" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>16</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>-6</v>
       </c>
       <c r="I98" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         <v>-5</v>
       </c>
       <c r="I99" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -4239,7 +4239,7 @@
         <v>-7</v>
       </c>
       <c r="I100" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>-2</v>
       </c>
       <c r="I101" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
         <v>3</v>
       </c>
       <c r="I102" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -4505,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -4619,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>-2</v>
       </c>
       <c r="I111" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         <v>-28</v>
       </c>
       <c r="I115" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -4999,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="I120" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>6</v>
       </c>
       <c r="I121" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
@@ -5265,7 +5265,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
         <v>-3</v>
       </c>
       <c r="I128" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
         <v>-19</v>
       </c>
       <c r="I131" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -5455,7 +5455,7 @@
         <v>-22</v>
       </c>
       <c r="I132" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
@@ -5493,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="n">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         <v>-2</v>
       </c>
       <c r="I146" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>11</v>
       </c>
       <c r="I150" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         <v>-5</v>
       </c>
       <c r="I151" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
@@ -6215,7 +6215,7 @@
         <v>19</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -6405,7 +6405,7 @@
         <v>-5</v>
       </c>
       <c r="I157" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
         <v>16</v>
       </c>
       <c r="I158" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>-12</v>
       </c>
       <c r="I162" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
         <v>-13</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J166" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>-99</v>
       </c>
       <c r="I167" t="n">
-        <v>512</v>
+        <v>1100</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -6823,7 +6823,7 @@
         <v>-111</v>
       </c>
       <c r="I168" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J168" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="I171" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J171" t="inlineStr">
         <is>
@@ -6975,7 +6975,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J172" t="inlineStr">
         <is>
@@ -7013,7 +7013,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J173" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="J174" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         <v>9</v>
       </c>
       <c r="I176" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>-4</v>
       </c>
       <c r="I177" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
         <v>-21</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
@@ -7241,7 +7241,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>-18</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
@@ -7355,7 +7355,7 @@
         <v>14</v>
       </c>
       <c r="I182" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>-13</v>
       </c>
       <c r="I183" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -7431,7 +7431,7 @@
         <v>3</v>
       </c>
       <c r="I184" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>-5</v>
       </c>
       <c r="I186" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
         <v>-3</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -7811,7 +7811,7 @@
         <v>13</v>
       </c>
       <c r="I194" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J194" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>-10</v>
       </c>
       <c r="I195" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J195" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>13</v>
       </c>
       <c r="I196" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="J196" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J197" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>-9</v>
       </c>
       <c r="I198" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J198" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J199" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J200" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>-15</v>
       </c>
       <c r="I203" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J203" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>-13</v>
       </c>
       <c r="I209" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J209" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>-6</v>
       </c>
       <c r="I210" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J210" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J211" t="inlineStr">
         <is>
@@ -8571,7 +8571,7 @@
         <v>-22</v>
       </c>
       <c r="I214" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J214" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J219" t="inlineStr">
         <is>
@@ -10319,7 +10319,7 @@
         <v>-776</v>
       </c>
       <c r="I260" t="n">
-        <v>3999</v>
+        <v>2000</v>
       </c>
       <c r="J260" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>-15</v>
       </c>
       <c r="I262" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J262" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J264" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J265" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>-1</v>
       </c>
       <c r="I267" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J267" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J268" t="inlineStr">
         <is>
@@ -10661,7 +10661,7 @@
         <v>-3</v>
       </c>
       <c r="I269" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J269" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>-3</v>
       </c>
       <c r="I270" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J270" t="inlineStr">
         <is>
@@ -10737,7 +10737,7 @@
         <v>-4</v>
       </c>
       <c r="I271" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J271" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>-2</v>
       </c>
       <c r="I272" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J272" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>-9</v>
       </c>
       <c r="I273" t="n">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="J273" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>-9</v>
       </c>
       <c r="I274" t="n">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="J274" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>-150</v>
       </c>
       <c r="I275" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="J275" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>-42</v>
       </c>
       <c r="I276" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J276" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>-268</v>
       </c>
       <c r="I277" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>-776</v>
       </c>
       <c r="I278" t="n">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="J278" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>20</v>
       </c>
       <c r="I281" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J281" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>-140</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="J283" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>-103</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="J284" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>-6</v>
       </c>
       <c r="I288" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="J288" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>5</v>
       </c>
       <c r="I289" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J289" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>-1</v>
       </c>
       <c r="I290" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J290" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>-3</v>
       </c>
       <c r="I291" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J291" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="I292" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J292" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>1</v>
       </c>
       <c r="I293" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J293" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>-5</v>
       </c>
       <c r="I294" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J294" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>-15</v>
       </c>
       <c r="I296" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J296" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>-14</v>
       </c>
       <c r="I298" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J298" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>-12</v>
       </c>
       <c r="I299" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="J299" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>-15</v>
       </c>
       <c r="I300" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J300" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>-18</v>
       </c>
       <c r="I301" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J301" t="inlineStr">
         <is>
@@ -11915,7 +11915,7 @@
         <v>-10</v>
       </c>
       <c r="I302" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J302" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>-23</v>
       </c>
       <c r="I303" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J303" t="inlineStr">
         <is>
@@ -11991,7 +11991,7 @@
         <v>-12</v>
       </c>
       <c r="I304" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J304" t="inlineStr">
         <is>
@@ -12029,7 +12029,7 @@
         <v>3</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J305" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>-24</v>
       </c>
       <c r="I306" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -12143,7 +12143,7 @@
         <v>-11</v>
       </c>
       <c r="I308" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J308" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>-16</v>
       </c>
       <c r="I309" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J309" t="inlineStr">
         <is>
@@ -12219,7 +12219,7 @@
         <v>-11</v>
       </c>
       <c r="I310" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="J310" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>-15</v>
       </c>
       <c r="I311" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J311" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>-13</v>
       </c>
       <c r="I312" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J312" t="inlineStr">
         <is>
@@ -12333,7 +12333,7 @@
         <v>-13</v>
       </c>
       <c r="I313" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J313" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         <v>-16</v>
       </c>
       <c r="I314" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="J314" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>-29</v>
       </c>
       <c r="I315" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
@@ -12447,7 +12447,7 @@
         <v>-11</v>
       </c>
       <c r="I316" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J316" t="inlineStr">
         <is>
@@ -12485,7 +12485,7 @@
         <v>-22</v>
       </c>
       <c r="I317" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J317" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>35</v>
       </c>
       <c r="I324" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J324" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>13</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
@@ -13055,7 +13055,7 @@
         <v>-20</v>
       </c>
       <c r="I332" t="n">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="J332" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>-32</v>
       </c>
       <c r="I339" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J339" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
         <v>-20</v>
       </c>
       <c r="I341" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J341" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>-13</v>
       </c>
       <c r="I342" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J342" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>4</v>
       </c>
       <c r="I343" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J343" t="inlineStr">
         <is>
@@ -13511,7 +13511,7 @@
         <v>-10</v>
       </c>
       <c r="I344" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J344" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         <v>-14</v>
       </c>
       <c r="I346" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J346" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J348" t="inlineStr">
         <is>
@@ -13701,7 +13701,7 @@
         <v>-7</v>
       </c>
       <c r="I349" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="J349" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="I350" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J350" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>-20</v>
       </c>
       <c r="I351" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J351" t="inlineStr">
         <is>
@@ -13815,7 +13815,7 @@
         <v>-2</v>
       </c>
       <c r="I352" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J352" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>-3</v>
       </c>
       <c r="I353" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="J353" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>-3</v>
       </c>
       <c r="I354" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J354" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>-7</v>
       </c>
       <c r="I356" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J356" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>-6</v>
       </c>
       <c r="I357" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J357" t="inlineStr">
         <is>
@@ -14043,7 +14043,7 @@
         <v>-29</v>
       </c>
       <c r="I358" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -14081,7 +14081,7 @@
         <v>-11</v>
       </c>
       <c r="I359" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="J359" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>-17</v>
       </c>
       <c r="I360" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -14157,7 +14157,7 @@
         <v>-13</v>
       </c>
       <c r="I361" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J361" t="inlineStr">
         <is>
@@ -14195,7 +14195,7 @@
         <v>-18</v>
       </c>
       <c r="I362" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J362" t="inlineStr">
         <is>
@@ -14271,7 +14271,7 @@
         <v>-12</v>
       </c>
       <c r="I364" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J364" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>-11</v>
       </c>
       <c r="I365" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J365" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>-22</v>
       </c>
       <c r="I366" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J366" t="inlineStr">
         <is>
@@ -14385,7 +14385,7 @@
         <v>-7</v>
       </c>
       <c r="I367" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="J367" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>4</v>
       </c>
       <c r="I369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
@@ -14537,7 +14537,7 @@
         <v>-9</v>
       </c>
       <c r="I371" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>-7</v>
       </c>
       <c r="I372" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J372" t="inlineStr">
         <is>
@@ -14613,7 +14613,7 @@
         <v>3</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J373" t="inlineStr">
         <is>
@@ -14651,7 +14651,7 @@
         <v>-3</v>
       </c>
       <c r="I374" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J374" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="I375" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>5</v>
       </c>
       <c r="I378" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J378" t="inlineStr">
         <is>
@@ -14955,7 +14955,7 @@
         <v>-2</v>
       </c>
       <c r="I382" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I383" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="J383" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>-4</v>
       </c>
       <c r="I384" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J384" t="inlineStr">
         <is>
@@ -15335,7 +15335,7 @@
         <v>-15</v>
       </c>
       <c r="I392" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J392" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>-7</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J393" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>-1</v>
       </c>
       <c r="I396" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J396" t="inlineStr">
         <is>
@@ -15525,7 +15525,7 @@
         <v>-6</v>
       </c>
       <c r="I397" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J397" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>-4</v>
       </c>
       <c r="I398" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J398" t="inlineStr">
         <is>
@@ -15639,7 +15639,7 @@
         <v>6</v>
       </c>
       <c r="I400" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J400" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>-4</v>
       </c>
       <c r="I401" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J401" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>-15</v>
       </c>
       <c r="I402" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J402" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>3</v>
       </c>
       <c r="I405" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J405" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>18</v>
       </c>
       <c r="I406" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="J406" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>-21</v>
       </c>
       <c r="I409" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="J409" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>-5</v>
       </c>
       <c r="I411" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J411" t="inlineStr">
         <is>
@@ -16133,7 +16133,7 @@
         <v>-7</v>
       </c>
       <c r="I413" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J413" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>-6</v>
       </c>
       <c r="I414" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="J414" t="inlineStr">
         <is>
@@ -16209,7 +16209,7 @@
         <v>14</v>
       </c>
       <c r="I415" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J415" t="inlineStr">
         <is>
@@ -16247,7 +16247,7 @@
         <v>11</v>
       </c>
       <c r="I416" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J416" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>-717</v>
       </c>
       <c r="I420" t="n">
-        <v>12500</v>
+        <v>4000</v>
       </c>
       <c r="J420" t="inlineStr">
         <is>
@@ -16437,7 +16437,7 @@
         <v>5</v>
       </c>
       <c r="I421" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J421" t="inlineStr">
         <is>
@@ -16475,7 +16475,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J422" t="inlineStr">
         <is>
@@ -16551,7 +16551,7 @@
         <v>3</v>
       </c>
       <c r="I424" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J424" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>1</v>
       </c>
       <c r="I429" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J429" t="inlineStr">
         <is>
@@ -16779,7 +16779,7 @@
         <v>16</v>
       </c>
       <c r="I430" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J430" t="inlineStr">
         <is>
@@ -16931,7 +16931,7 @@
         <v>-4</v>
       </c>
       <c r="I434" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J434" t="inlineStr">
         <is>
@@ -16969,7 +16969,7 @@
         <v>-3</v>
       </c>
       <c r="I435" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J435" t="inlineStr">
         <is>
@@ -17007,7 +17007,7 @@
         <v>-3</v>
       </c>
       <c r="I436" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J436" t="inlineStr">
         <is>
@@ -17121,7 +17121,7 @@
         <v>11</v>
       </c>
       <c r="I439" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="J439" t="inlineStr">
         <is>
@@ -17197,7 +17197,7 @@
         <v>-13</v>
       </c>
       <c r="I441" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J441" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>-5</v>
       </c>
       <c r="I442" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J442" t="inlineStr">
         <is>
@@ -17425,7 +17425,7 @@
         <v>6</v>
       </c>
       <c r="I447" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J447" t="inlineStr">
         <is>
@@ -17463,7 +17463,7 @@
         <v>4</v>
       </c>
       <c r="I448" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J448" t="inlineStr">
         <is>
@@ -17843,7 +17843,7 @@
         <v>8</v>
       </c>
       <c r="I458" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J458" t="inlineStr">
         <is>
@@ -17919,7 +17919,7 @@
         <v>6</v>
       </c>
       <c r="I460" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J460" t="inlineStr">
         <is>
@@ -17995,7 +17995,7 @@
         <v>3</v>
       </c>
       <c r="I462" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J462" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>8</v>
       </c>
       <c r="I463" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J463" t="inlineStr">
         <is>
@@ -18109,7 +18109,7 @@
         <v>4</v>
       </c>
       <c r="I465" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J465" t="inlineStr">
         <is>
@@ -18147,7 +18147,7 @@
         <v>9</v>
       </c>
       <c r="I466" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J466" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>7</v>
       </c>
       <c r="I467" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J467" t="inlineStr">
         <is>
@@ -18223,7 +18223,7 @@
         <v>-71</v>
       </c>
       <c r="I468" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J468" t="inlineStr">
         <is>
